--- a/Rosas Aguilar Claudia Leonor 20212.xlsx
+++ b/Rosas Aguilar Claudia Leonor 20212.xlsx
@@ -11622,7 +11622,7 @@
         <v>1338</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:11">

--- a/Rosas Aguilar Claudia Leonor 20212.xlsx
+++ b/Rosas Aguilar Claudia Leonor 20212.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="1430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="1424">
   <si>
     <t>NC</t>
   </si>
@@ -3876,9 +3876,6 @@
     <t>CRISTINA KARELY</t>
   </si>
   <si>
-    <t>NATALIE</t>
-  </si>
-  <si>
     <t>DARLET VICTORIA</t>
   </si>
   <si>
@@ -3948,9 +3945,6 @@
     <t>garaydelgado80@gmail.com</t>
   </si>
   <si>
-    <t>natigap48@gmail.com</t>
-  </si>
-  <si>
     <t>darletvictoriagarciarodriguez@gmail.com</t>
   </si>
   <si>
@@ -4029,9 +4023,6 @@
     <t>2721200463</t>
   </si>
   <si>
-    <t>2722018659</t>
-  </si>
-  <si>
     <t>2727212047</t>
   </si>
   <si>
@@ -4101,9 +4092,6 @@
     <t>2721060576</t>
   </si>
   <si>
-    <t>2721443309</t>
-  </si>
-  <si>
     <t>2711036218</t>
   </si>
   <si>
@@ -4158,9 +4146,6 @@
     <t>JACQUELIN DELGADO POLITO</t>
   </si>
   <si>
-    <t>KARINA GUADALUPE PEREZ SAN JUAN</t>
-  </si>
-  <si>
     <t>RUTH BAUTISTA APARICIO</t>
   </si>
   <si>
@@ -4279,9 +4264,6 @@
   </si>
   <si>
     <t>2727839804</t>
-  </si>
-  <si>
-    <t>2721349831</t>
   </si>
   <si>
     <t>2711036278</t>
@@ -11150,7 +11132,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11214,19 +11196,19 @@
         <v>1278</v>
       </c>
       <c r="E2" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="F2" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="G2" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="H2" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="J2" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -11246,19 +11228,19 @@
         <v>548</v>
       </c>
       <c r="E3" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="F3" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="G3" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="H3" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="J3" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -11278,16 +11260,16 @@
         <v>1279</v>
       </c>
       <c r="E4" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="G4" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="H4" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="J4" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -11307,19 +11289,19 @@
         <v>1280</v>
       </c>
       <c r="E5" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F5" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="H5" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="I5" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="J5" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -11339,19 +11321,19 @@
         <v>1281</v>
       </c>
       <c r="E6" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="F6" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="H6" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="I6" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="J6" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -11371,22 +11353,22 @@
         <v>1282</v>
       </c>
       <c r="E7" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="F7" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="G7" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="H7" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="I7" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="J7" t="s">
-        <v>1417</v>
+        <v>1412</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -11406,22 +11388,22 @@
         <v>1283</v>
       </c>
       <c r="E8" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="F8" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="G8" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="H8" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="I8" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="J8" t="s">
-        <v>1417</v>
+        <v>1412</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -11441,22 +11423,22 @@
         <v>1284</v>
       </c>
       <c r="E9" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="F9" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="G9" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="H9" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="I9" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
       <c r="J9" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -11476,22 +11458,22 @@
         <v>321</v>
       </c>
       <c r="E10" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="F10" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="G10" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="H10" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="I10" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
       <c r="J10" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -11499,31 +11481,28 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>21330051920120</v>
+        <v>21330051920340</v>
       </c>
       <c r="B11" t="s">
         <v>515</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>294</v>
       </c>
       <c r="D11" t="s">
         <v>1285</v>
       </c>
       <c r="E11" t="s">
-        <v>1309</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1336</v>
+        <v>1308</v>
       </c>
       <c r="G11" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="H11" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="J11" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -11531,28 +11510,31 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>21330051920340</v>
+        <v>21330051920341</v>
       </c>
       <c r="B12" t="s">
-        <v>515</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>294</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>1286</v>
       </c>
       <c r="E12" t="s">
-        <v>1310</v>
+        <v>1309</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1334</v>
       </c>
       <c r="G12" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="H12" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="J12" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -11560,31 +11542,34 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>21330051920341</v>
+        <v>21330051920342</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>1002</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>710</v>
       </c>
       <c r="D13" t="s">
         <v>1287</v>
       </c>
       <c r="E13" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="F13" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="G13" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="H13" t="s">
-        <v>1381</v>
+        <v>1377</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1398</v>
       </c>
       <c r="J13" t="s">
-        <v>1422</v>
+        <v>1335</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -11592,95 +11577,92 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>21330051920342</v>
+        <v>21330051920343</v>
       </c>
       <c r="B14" t="s">
         <v>1002</v>
       </c>
       <c r="C14" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="D14" t="s">
-        <v>1288</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="F14" t="s">
-        <v>1338</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1363</v>
+        <v>1336</v>
       </c>
       <c r="H14" t="s">
-        <v>1382</v>
-      </c>
-      <c r="I14" t="s">
-        <v>1403</v>
+        <v>1378</v>
       </c>
       <c r="J14" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>21330051920343</v>
+        <v>21330051920344</v>
       </c>
       <c r="B15" t="s">
-        <v>1002</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>720</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>1288</v>
       </c>
       <c r="E15" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="F15" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="H15" t="s">
-        <v>1383</v>
+        <v>1379</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1399</v>
       </c>
       <c r="J15" t="s">
-        <v>1339</v>
+        <v>1417</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>21330051920344</v>
+        <v>21330051920345</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
         <v>1289</v>
       </c>
       <c r="E16" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="F16" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="H16" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="I16" t="s">
-        <v>1404</v>
+        <v>1313</v>
       </c>
       <c r="J16" t="s">
-        <v>1423</v>
+        <v>1338</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -11688,31 +11670,31 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>21330051920345</v>
+        <v>21330051920346</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>1270</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>1290</v>
+        <v>997</v>
       </c>
       <c r="E17" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="F17" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="H17" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="I17" t="s">
-        <v>1315</v>
+        <v>1400</v>
       </c>
       <c r="J17" t="s">
-        <v>1341</v>
+        <v>1418</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -11720,63 +11702,66 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>21330051920346</v>
+        <v>21330051920347</v>
       </c>
       <c r="B18" t="s">
-        <v>1270</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>1003</v>
       </c>
       <c r="D18" t="s">
-        <v>997</v>
+        <v>1290</v>
       </c>
       <c r="E18" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="F18" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="H18" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="I18" t="s">
-        <v>1405</v>
+        <v>1315</v>
       </c>
       <c r="J18" t="s">
-        <v>1424</v>
+        <v>1340</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>21330051920347</v>
+        <v>21330051920348</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>1003</v>
+        <v>1275</v>
       </c>
       <c r="D19" t="s">
         <v>1291</v>
       </c>
       <c r="E19" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="F19" t="s">
-        <v>1343</v>
+        <v>1341</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1360</v>
       </c>
       <c r="H19" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I19" t="s">
-        <v>1317</v>
+        <v>1401</v>
       </c>
       <c r="J19" t="s">
-        <v>1343</v>
+        <v>1419</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -11784,34 +11769,31 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>21330051920348</v>
+        <v>21330051920349</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>1010</v>
       </c>
       <c r="C20" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="D20" t="s">
         <v>1292</v>
       </c>
       <c r="E20" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="F20" t="s">
-        <v>1344</v>
-      </c>
-      <c r="G20" t="s">
-        <v>1364</v>
+        <v>1342</v>
       </c>
       <c r="H20" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="I20" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="J20" t="s">
-        <v>1425</v>
+        <v>1342</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -11819,95 +11801,98 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>21330051920349</v>
+        <v>21330051920350</v>
       </c>
       <c r="B21" t="s">
-        <v>1010</v>
+        <v>718</v>
       </c>
       <c r="C21" t="s">
-        <v>1276</v>
+        <v>708</v>
       </c>
       <c r="D21" t="s">
         <v>1293</v>
       </c>
       <c r="E21" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="F21" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="H21" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="I21" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="J21" t="s">
-        <v>1345</v>
+        <v>1420</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>21330051920350</v>
+        <v>21330051920149</v>
       </c>
       <c r="B22" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C22" t="s">
-        <v>708</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="E22" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F22" t="s">
-        <v>1346</v>
+        <v>1344</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1361</v>
       </c>
       <c r="H22" t="s">
-        <v>1390</v>
-      </c>
-      <c r="I22" t="s">
-        <v>1408</v>
+        <v>1386</v>
       </c>
       <c r="J22" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>21330051920149</v>
+        <v>21330051920351</v>
       </c>
       <c r="B23" t="s">
-        <v>720</v>
+        <v>293</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>1289</v>
+        <v>1294</v>
       </c>
       <c r="E23" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F23" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G23" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="H23" t="s">
-        <v>1391</v>
+        <v>1387</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1404</v>
       </c>
       <c r="J23" t="s">
-        <v>1427</v>
+        <v>1422</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -11915,63 +11900,63 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>21330051920351</v>
+        <v>21330051920322</v>
       </c>
       <c r="B24" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>279</v>
       </c>
       <c r="D24" t="s">
         <v>1295</v>
       </c>
       <c r="E24" t="s">
-        <v>1322</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1348</v>
+        <v>1321</v>
       </c>
       <c r="G24" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="H24" t="s">
-        <v>1392</v>
-      </c>
-      <c r="I24" t="s">
-        <v>1409</v>
+        <v>1388</v>
       </c>
       <c r="J24" t="s">
-        <v>1428</v>
+        <v>1363</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>21330051920322</v>
+        <v>21330051920174</v>
       </c>
       <c r="B25" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="C25" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
         <v>1296</v>
       </c>
       <c r="E25" t="s">
-        <v>1323</v>
+        <v>1322</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1346</v>
       </c>
       <c r="G25" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="H25" t="s">
-        <v>1393</v>
+        <v>1389</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1322</v>
       </c>
       <c r="J25" t="s">
-        <v>1367</v>
+        <v>1346</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -11979,138 +11964,103 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>21330051920174</v>
+        <v>21330051920352</v>
       </c>
       <c r="B26" t="s">
-        <v>306</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>1277</v>
       </c>
       <c r="D26" t="s">
         <v>1297</v>
       </c>
       <c r="E26" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="F26" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="G26" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="H26" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="I26" t="s">
-        <v>1324</v>
+        <v>1405</v>
       </c>
       <c r="J26" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>21330051920352</v>
+        <v>21330051920353</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>1277</v>
+        <v>1023</v>
       </c>
       <c r="D27" t="s">
-        <v>1298</v>
+        <v>755</v>
       </c>
       <c r="E27" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="F27" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="G27" t="s">
-        <v>1369</v>
+        <v>1348</v>
       </c>
       <c r="H27" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="I27" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="J27" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>21330051920353</v>
+        <v>21330051920354</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>1271</v>
       </c>
       <c r="C28" t="s">
-        <v>1023</v>
+        <v>300</v>
       </c>
       <c r="D28" t="s">
-        <v>755</v>
+        <v>1298</v>
       </c>
       <c r="E28" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="F28" t="s">
-        <v>1351</v>
-      </c>
-      <c r="G28" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="H28" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="I28" t="s">
-        <v>1411</v>
+        <v>1325</v>
       </c>
       <c r="J28" t="s">
-        <v>1351</v>
+        <v>1423</v>
       </c>
       <c r="K28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29">
-        <v>21330051920354</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C29" t="s">
-        <v>300</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1299</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1327</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1352</v>
-      </c>
-      <c r="H29" t="s">
-        <v>1397</v>
-      </c>
-      <c r="I29" t="s">
-        <v>1327</v>
-      </c>
-      <c r="J29" t="s">
-        <v>1429</v>
-      </c>
-      <c r="K29">
         <v>1</v>
       </c>
     </row>

--- a/Rosas Aguilar Claudia Leonor 20212.xlsx
+++ b/Rosas Aguilar Claudia Leonor 20212.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="1424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="1426">
   <si>
     <t>NC</t>
   </si>
@@ -2190,6 +2190,9 @@
     <t>ROJAS</t>
   </si>
   <si>
+    <t>RUBALCAVA</t>
+  </si>
+  <si>
     <t>TERCERO</t>
   </si>
   <si>
@@ -2350,6 +2353,9 @@
   </si>
   <si>
     <t>ARANTXA</t>
+  </si>
+  <si>
+    <t>BRIANDA RENEE</t>
   </si>
   <si>
     <t>ISAI</t>
@@ -8153,7 +8159,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8211,28 +8217,28 @@
         <v>704</v>
       </c>
       <c r="C2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E2" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="F2" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="G2" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="H2" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="I2" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="J2" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -8249,22 +8255,22 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E3" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="F3" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="H3" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="I3" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="J3" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -8278,28 +8284,28 @@
         <v>706</v>
       </c>
       <c r="C4" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D4" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E4" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="F4" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="G4" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="H4" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="I4" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="J4" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -8313,28 +8319,28 @@
         <v>707</v>
       </c>
       <c r="C5" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D5" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E5" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="F5" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="G5" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="H5" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="I5" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="J5" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -8351,22 +8357,22 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E6" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="F6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="G6" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="H6" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="J6" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -8383,25 +8389,25 @@
         <v>514</v>
       </c>
       <c r="D7" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E7" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="F7" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="G7" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="H7" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="I7" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="J7" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -8415,28 +8421,28 @@
         <v>710</v>
       </c>
       <c r="C8" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D8" t="s">
         <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="F8" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="G8" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="H8" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="I8" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="J8" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -8450,25 +8456,25 @@
         <v>515</v>
       </c>
       <c r="C9" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D9" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E9" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="F9" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="H9" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="I9" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="J9" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -8485,19 +8491,19 @@
         <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E10" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="G10" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="H10" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="J10" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -8511,28 +8517,28 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D11" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E11" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="F11" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="G11" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="H11" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="I11" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="J11" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -8549,25 +8555,25 @@
         <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E12" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="F12" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="G12" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="H12" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="I12" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="J12" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -8581,28 +8587,28 @@
         <v>712</v>
       </c>
       <c r="C13" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D13" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E13" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="F13" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="G13" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="H13" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="I13" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="J13" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -8616,25 +8622,25 @@
         <v>499</v>
       </c>
       <c r="C14" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D14" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E14" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="F14" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="H14" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="I14" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="J14" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -8648,22 +8654,22 @@
         <v>713</v>
       </c>
       <c r="C15" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D15" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E15" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="G15" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="H15" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="J15" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -8680,22 +8686,22 @@
         <v>515</v>
       </c>
       <c r="D16" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E16" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="F16" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="G16" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="H16" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="J16" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -8712,22 +8718,22 @@
         <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E17" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="F17" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="H17" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="I17" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="J17" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -8741,28 +8747,28 @@
         <v>714</v>
       </c>
       <c r="C18" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D18" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E18" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="F18" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="G18" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="H18" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="I18" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="J18" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -8776,28 +8782,28 @@
         <v>715</v>
       </c>
       <c r="C19" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D19" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E19" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="F19" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="G19" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="H19" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="I19" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="J19" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -8814,25 +8820,25 @@
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E20" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="F20" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="G20" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="H20" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="I20" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="J20" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -8849,22 +8855,22 @@
         <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E21" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="F21" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="G21" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="H21" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="J21" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -8878,28 +8884,28 @@
         <v>516</v>
       </c>
       <c r="C22" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D22" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E22" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="F22" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="G22" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="H22" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="I22" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="J22" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -8916,22 +8922,22 @@
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E23" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="F23" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="H23" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="I23" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="J23" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -8948,22 +8954,22 @@
         <v>506</v>
       </c>
       <c r="D24" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E24" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="F24" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="H24" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="I24" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="J24" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -8977,25 +8983,25 @@
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D25" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E25" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="F25" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="H25" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="I25" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="J25" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -9012,22 +9018,22 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E26" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="F26" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="H26" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="I26" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="J26" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -9041,25 +9047,25 @@
         <v>719</v>
       </c>
       <c r="C27" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D27" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E27" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="F27" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="H27" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="I27" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="J27" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -9076,22 +9082,22 @@
         <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="E28" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="F28" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="G28" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="H28" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="J28" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -9108,22 +9114,22 @@
         <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E29" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="F29" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="H29" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="I29" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="J29" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -9140,25 +9146,25 @@
         <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E30" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="F30" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="G30" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="H30" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="I30" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="J30" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -9175,22 +9181,22 @@
         <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E31" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="F31" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="H31" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="I31" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="J31" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -9204,28 +9210,28 @@
         <v>722</v>
       </c>
       <c r="C32" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D32" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E32" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="F32" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="G32" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="H32" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="I32" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="J32" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -9242,25 +9248,25 @@
         <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E33" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="F33" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="G33" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="H33" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="I33" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="J33" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -9277,25 +9283,25 @@
         <v>713</v>
       </c>
       <c r="D34" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E34" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="F34" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="G34" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="H34" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="I34" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="J34" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -9303,63 +9309,48 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
-        <v>21330051920279</v>
+        <v>21330051420149</v>
       </c>
       <c r="B35" t="s">
-        <v>295</v>
+        <v>723</v>
       </c>
       <c r="C35" t="s">
-        <v>744</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>777</v>
-      </c>
-      <c r="E35" t="s">
-        <v>820</v>
-      </c>
-      <c r="F35" t="s">
-        <v>861</v>
-      </c>
-      <c r="G35" t="s">
-        <v>887</v>
-      </c>
-      <c r="H35" t="s">
-        <v>926</v>
-      </c>
-      <c r="I35" t="s">
-        <v>959</v>
-      </c>
-      <c r="J35" t="s">
-        <v>988</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
+        <v>778</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
-        <v>21330051920280</v>
+        <v>21330051920279</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>295</v>
       </c>
       <c r="C36" t="s">
-        <v>710</v>
+        <v>745</v>
       </c>
       <c r="D36" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E36" t="s">
-        <v>821</v>
+        <v>822</v>
+      </c>
+      <c r="F36" t="s">
+        <v>863</v>
       </c>
       <c r="G36" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H36" t="s">
-        <v>927</v>
+        <v>928</v>
+      </c>
+      <c r="I36" t="s">
+        <v>961</v>
       </c>
       <c r="J36" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -9367,203 +9358,197 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37">
-        <v>21330051920282</v>
+        <v>21330051920280</v>
       </c>
       <c r="B37" t="s">
-        <v>723</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>745</v>
+        <v>710</v>
       </c>
       <c r="D37" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E37" t="s">
-        <v>822</v>
-      </c>
-      <c r="F37" t="s">
-        <v>862</v>
+        <v>823</v>
+      </c>
+      <c r="G37" t="s">
+        <v>890</v>
       </c>
       <c r="H37" t="s">
-        <v>928</v>
-      </c>
-      <c r="I37" t="s">
-        <v>960</v>
+        <v>929</v>
       </c>
       <c r="J37" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38">
-        <v>21330051920283</v>
+        <v>21330051920282</v>
       </c>
       <c r="B38" t="s">
         <v>724</v>
       </c>
       <c r="C38" t="s">
-        <v>729</v>
+        <v>746</v>
       </c>
       <c r="D38" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E38" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="F38" t="s">
-        <v>863</v>
-      </c>
-      <c r="G38" t="s">
-        <v>889</v>
+        <v>864</v>
       </c>
       <c r="H38" t="s">
-        <v>929</v>
+        <v>930</v>
+      </c>
+      <c r="I38" t="s">
+        <v>962</v>
       </c>
       <c r="J38" t="s">
-        <v>863</v>
+        <v>992</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39">
-        <v>21330051920284</v>
+        <v>21330051920283</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>725</v>
       </c>
       <c r="C39" t="s">
-        <v>512</v>
+        <v>730</v>
       </c>
       <c r="D39" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E39" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="F39" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="G39" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H39" t="s">
-        <v>930</v>
-      </c>
-      <c r="I39" t="s">
-        <v>824</v>
+        <v>931</v>
       </c>
       <c r="J39" t="s">
-        <v>991</v>
+        <v>865</v>
       </c>
       <c r="K39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40">
-        <v>21330051920285</v>
+        <v>21330051920284</v>
       </c>
       <c r="B40" t="s">
-        <v>725</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>719</v>
+        <v>512</v>
       </c>
       <c r="D40" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E40" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F40" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="G40" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H40" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="I40" t="s">
-        <v>961</v>
+        <v>826</v>
       </c>
       <c r="J40" t="s">
-        <v>865</v>
+        <v>993</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41">
-        <v>21330051920286</v>
+        <v>21330051920285</v>
       </c>
       <c r="B41" t="s">
         <v>726</v>
       </c>
       <c r="C41" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D41" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E41" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="F41" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="G41" t="s">
-        <v>866</v>
+        <v>893</v>
       </c>
       <c r="H41" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="I41" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="J41" t="s">
-        <v>992</v>
+        <v>867</v>
       </c>
       <c r="K41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42">
-        <v>20330051920358</v>
+        <v>21330051920286</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>727</v>
       </c>
       <c r="C42" t="s">
-        <v>309</v>
+        <v>718</v>
       </c>
       <c r="D42" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E42" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="F42" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G42" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H42" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="I42" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="J42" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -9571,62 +9556,97 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43">
-        <v>21330051920287</v>
+        <v>20330051920358</v>
       </c>
       <c r="B43" t="s">
-        <v>727</v>
+        <v>36</v>
       </c>
       <c r="C43" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D43" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E43" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F43" t="s">
-        <v>868</v>
+        <v>869</v>
+      </c>
+      <c r="G43" t="s">
+        <v>869</v>
       </c>
       <c r="H43" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="I43" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="J43" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44">
-        <v>21330051920288</v>
+        <v>21330051920287</v>
       </c>
       <c r="B44" t="s">
         <v>728</v>
       </c>
       <c r="C44" t="s">
+        <v>313</v>
+      </c>
+      <c r="D44" t="s">
+        <v>787</v>
+      </c>
+      <c r="E44" t="s">
+        <v>830</v>
+      </c>
+      <c r="F44" t="s">
+        <v>870</v>
+      </c>
+      <c r="H44" t="s">
+        <v>936</v>
+      </c>
+      <c r="I44" t="s">
+        <v>966</v>
+      </c>
+      <c r="J44" t="s">
+        <v>996</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45">
+        <v>21330051920288</v>
+      </c>
+      <c r="B45" t="s">
+        <v>729</v>
+      </c>
+      <c r="C45" t="s">
         <v>302</v>
       </c>
-      <c r="D44" t="s">
-        <v>786</v>
-      </c>
-      <c r="E44" t="s">
-        <v>829</v>
-      </c>
-      <c r="G44" t="s">
-        <v>892</v>
-      </c>
-      <c r="H44" t="s">
-        <v>935</v>
-      </c>
-      <c r="J44" t="s">
-        <v>995</v>
-      </c>
-      <c r="K44">
+      <c r="D45" t="s">
+        <v>788</v>
+      </c>
+      <c r="E45" t="s">
+        <v>831</v>
+      </c>
+      <c r="G45" t="s">
+        <v>894</v>
+      </c>
+      <c r="H45" t="s">
+        <v>937</v>
+      </c>
+      <c r="J45" t="s">
+        <v>997</v>
+      </c>
+      <c r="K45">
         <v>2</v>
       </c>
     </row>
@@ -9692,25 +9712,25 @@
         <v>21330051920289</v>
       </c>
       <c r="B2" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="C2" t="s">
         <v>302</v>
       </c>
       <c r="D2" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="E2" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="G2" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="H2" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="J2" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -9727,22 +9747,22 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="E3" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="F3" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="H3" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="I3" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="J3" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -9753,25 +9773,25 @@
         <v>21330051920291</v>
       </c>
       <c r="B4" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="C4" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D4" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="E4" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="F4" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="H4" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="J4" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -9782,31 +9802,31 @@
         <v>21330051920292</v>
       </c>
       <c r="B5" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="C5" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="D5" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="E5" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="F5" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="G5" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="H5" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="I5" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="J5" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -9820,25 +9840,25 @@
         <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="D6" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="E6" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="F6" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="H6" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="I6" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="J6" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -9849,31 +9869,31 @@
         <v>21330051920294</v>
       </c>
       <c r="B7" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="E7" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="F7" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="G7" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="H7" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="I7" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="J7" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -9890,19 +9910,19 @@
         <v>718</v>
       </c>
       <c r="D8" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="E8" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="F8" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="H8" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="J8" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -9913,28 +9933,28 @@
         <v>21330051920296</v>
       </c>
       <c r="B9" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C9" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="D9" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="E9" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="F9" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="H9" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="I9" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="J9" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -9948,22 +9968,22 @@
         <v>708</v>
       </c>
       <c r="C10" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="D10" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="E10" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="G10" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="H10" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="J10" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -9980,25 +10000,25 @@
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="E11" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="F11" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="G11" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="H11" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="I11" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="J11" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -10015,25 +10035,25 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="E12" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="F12" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="G12" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="H12" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="I12" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="J12" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -10044,28 +10064,28 @@
         <v>21330051920337</v>
       </c>
       <c r="B13" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="C13" t="s">
         <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="E13" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="F13" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="H13" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="I13" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="J13" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -10079,22 +10099,22 @@
         <v>710</v>
       </c>
       <c r="C14" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="D14" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="E14" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="G14" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="H14" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="J14" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -10108,28 +10128,28 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="D15" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="E15" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="F15" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="G15" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="H15" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="I15" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="J15" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -10143,28 +10163,28 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D16" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="E16" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="F16" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="G16" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="H16" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="I16" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="J16" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -10175,28 +10195,28 @@
         <v>21330051920303</v>
       </c>
       <c r="B17" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="E17" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="F17" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="H17" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="I17" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="J17" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -10207,28 +10227,28 @@
         <v>21330051920304</v>
       </c>
       <c r="B18" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="E18" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="F18" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="G18" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="H18" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="J18" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -10239,25 +10259,25 @@
         <v>21330051920305</v>
       </c>
       <c r="B19" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="C19" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="D19" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="E19" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="G19" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="H19" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="J19" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -10274,22 +10294,22 @@
         <v>719</v>
       </c>
       <c r="D20" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="E20" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="F20" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="H20" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="I20" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="J20" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -10306,22 +10326,22 @@
         <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="E21" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="F21" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="H21" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="I21" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="J21" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -10335,25 +10355,25 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="D22" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="E22" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="F22" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="G22" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="H22" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="J22" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -10364,31 +10384,31 @@
         <v>21330051920308</v>
       </c>
       <c r="B23" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="E23" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="F23" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="G23" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="H23" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="I23" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="J23" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -10399,28 +10419,28 @@
         <v>21330051920309</v>
       </c>
       <c r="B24" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C24" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D24" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="E24" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="F24" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="H24" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="I24" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="J24" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -10434,28 +10454,28 @@
         <v>292</v>
       </c>
       <c r="C25" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="D25" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="E25" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="F25" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="G25" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="H25" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="I25" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="J25" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -10472,25 +10492,25 @@
         <v>294</v>
       </c>
       <c r="D26" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="E26" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="F26" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="G26" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="H26" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="I26" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="J26" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -10504,25 +10524,25 @@
         <v>502</v>
       </c>
       <c r="C27" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="D27" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="E27" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="F27" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="G27" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="H27" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="J27" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -10539,22 +10559,22 @@
         <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="E28" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="F28" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="G28" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="H28" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="J28" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -10565,28 +10585,28 @@
         <v>21330051920313</v>
       </c>
       <c r="B29" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="C29" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="D29" t="s">
         <v>74</v>
       </c>
       <c r="E29" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="F29" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="H29" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="I29" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="J29" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -10597,28 +10617,28 @@
         <v>21330051920314</v>
       </c>
       <c r="B30" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="C30" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="D30" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="E30" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="F30" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="G30" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="H30" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="J30" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -10629,31 +10649,31 @@
         <v>21330051920172</v>
       </c>
       <c r="B31" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="C31" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="D31" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="E31" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="F31" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="G31" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="H31" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="I31" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="J31" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -10667,25 +10687,25 @@
         <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="D32" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="E32" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="F32" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="H32" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="I32" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="J32" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -10705,19 +10725,19 @@
         <v>74</v>
       </c>
       <c r="E33" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="F33" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="H33" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="I33" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="J33" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -10728,28 +10748,28 @@
         <v>21330051920317</v>
       </c>
       <c r="B34" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C34" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="D34" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="E34" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="F34" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="G34" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="H34" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="J34" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -10763,25 +10783,25 @@
         <v>719</v>
       </c>
       <c r="C35" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="D35" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="E35" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="F35" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="G35" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="H35" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="J35" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -10798,22 +10818,22 @@
         <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="E36" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="F36" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="G36" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="H36" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="J36" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -10827,25 +10847,25 @@
         <v>720</v>
       </c>
       <c r="C37" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="D37" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="E37" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="F37" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="H37" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="I37" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="J37" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -10862,25 +10882,25 @@
         <v>296</v>
       </c>
       <c r="D38" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="E38" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="F38" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="G38" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="H38" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="I38" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="J38" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -10897,25 +10917,25 @@
         <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="E39" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="F39" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="G39" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="H39" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="I39" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="J39" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -10929,28 +10949,28 @@
         <v>722</v>
       </c>
       <c r="C40" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D40" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="E40" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="F40" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="G40" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="H40" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="I40" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="J40" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -10967,22 +10987,22 @@
         <v>719</v>
       </c>
       <c r="D41" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="E41" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="F41" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="H41" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="I41" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="J41" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -10999,22 +11019,22 @@
         <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="E42" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="F42" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="H42" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="I42" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="J42" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -11028,28 +11048,28 @@
         <v>506</v>
       </c>
       <c r="C43" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="D43" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="E43" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="F43" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="G43" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="H43" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="I43" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="J43" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -11066,25 +11086,25 @@
         <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="E44" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="F44" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="G44" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="H44" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="I44" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="J44" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -11095,31 +11115,31 @@
         <v>21330051920330</v>
       </c>
       <c r="B45" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C45" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="D45" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="E45" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="F45" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="G45" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="H45" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="I45" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="J45" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -11187,28 +11207,28 @@
         <v>21330051920331</v>
       </c>
       <c r="B2" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="C2" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="D2" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="E2" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="F2" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="G2" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="H2" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="J2" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -11219,28 +11239,28 @@
         <v>21330051920332</v>
       </c>
       <c r="B3" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="C3" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="D3" t="s">
         <v>548</v>
       </c>
       <c r="E3" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="F3" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="G3" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="H3" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="J3" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -11257,19 +11277,19 @@
         <v>310</v>
       </c>
       <c r="D4" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="E4" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="G4" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="H4" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="J4" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -11280,28 +11300,28 @@
         <v>21330051920334</v>
       </c>
       <c r="B5" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="C5" t="s">
         <v>306</v>
       </c>
       <c r="D5" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="E5" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="F5" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="H5" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="I5" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="J5" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -11318,22 +11338,22 @@
         <v>280</v>
       </c>
       <c r="D6" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="E6" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="F6" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="H6" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I6" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="J6" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -11344,31 +11364,31 @@
         <v>21330051920137</v>
       </c>
       <c r="B7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="E7" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="F7" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="G7" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="H7" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="I7" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="J7" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -11379,31 +11399,31 @@
         <v>21330051920336</v>
       </c>
       <c r="B8" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="E8" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="F8" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="G8" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="H8" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="I8" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="J8" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -11420,25 +11440,25 @@
         <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="E9" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="F9" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="G9" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="H9" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="I9" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="J9" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -11449,31 +11469,31 @@
         <v>21330051920339</v>
       </c>
       <c r="B10" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="C10" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="D10" t="s">
         <v>321</v>
       </c>
       <c r="E10" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="F10" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="G10" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="H10" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="I10" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="J10" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -11490,19 +11510,19 @@
         <v>294</v>
       </c>
       <c r="D11" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="E11" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="G11" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="H11" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="J11" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -11519,22 +11539,22 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="E12" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="F12" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="G12" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="H12" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="J12" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -11545,31 +11565,31 @@
         <v>21330051920342</v>
       </c>
       <c r="B13" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="C13" t="s">
         <v>710</v>
       </c>
       <c r="D13" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="E13" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="F13" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="G13" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="H13" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="I13" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="J13" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -11580,7 +11600,7 @@
         <v>21330051920343</v>
       </c>
       <c r="B14" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="C14" t="s">
         <v>720</v>
@@ -11589,16 +11609,16 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="F14" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="H14" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="J14" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -11615,22 +11635,22 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="E15" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="F15" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="H15" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="I15" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="J15" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -11647,22 +11667,22 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="E16" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="F16" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="H16" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="I16" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="J16" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -11673,28 +11693,28 @@
         <v>21330051920346</v>
       </c>
       <c r="B17" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E17" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="F17" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="H17" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="I17" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="J17" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -11708,25 +11728,25 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="D18" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="E18" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="F18" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="H18" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="I18" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="J18" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -11740,28 +11760,28 @@
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="D19" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="E19" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="F19" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="G19" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="H19" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="I19" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="J19" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -11772,28 +11792,28 @@
         <v>21330051920349</v>
       </c>
       <c r="B20" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C20" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="D20" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="E20" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="F20" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="H20" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="I20" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="J20" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -11810,22 +11830,22 @@
         <v>708</v>
       </c>
       <c r="D21" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="E21" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="F21" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="H21" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="I21" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="J21" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -11842,22 +11862,22 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="E22" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="F22" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="G22" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="H22" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="J22" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -11874,25 +11894,25 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="E23" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="F23" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="G23" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="H23" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="I23" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="J23" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -11909,19 +11929,19 @@
         <v>279</v>
       </c>
       <c r="D24" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="E24" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="G24" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="H24" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="J24" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -11938,25 +11958,25 @@
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="E25" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="F25" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="G25" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="H25" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="I25" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="J25" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -11970,28 +11990,28 @@
         <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="D26" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="E26" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="F26" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="G26" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="H26" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="I26" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="J26" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -12005,28 +12025,28 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="D27" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E27" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="F27" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="G27" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="H27" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="I27" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="J27" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -12037,28 +12057,28 @@
         <v>21330051920354</v>
       </c>
       <c r="B28" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="C28" t="s">
         <v>300</v>
       </c>
       <c r="D28" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="E28" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="F28" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="H28" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="I28" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="J28" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="K28">
         <v>1</v>

--- a/Rosas Aguilar Claudia Leonor 20212.xlsx
+++ b/Rosas Aguilar Claudia Leonor 20212.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="1426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="1428">
   <si>
     <t>NC</t>
   </si>
@@ -2487,6 +2487,9 @@
     <t>arantxitautam@gmail.com</t>
   </si>
   <si>
+    <t>#N/D</t>
+  </si>
+  <si>
     <t>sanjuanarauzisai@gmail.com</t>
   </si>
   <si>
@@ -2803,6 +2806,9 @@
   </si>
   <si>
     <t>HAIDE JIMÉNEZ CERÓN</t>
+  </si>
+  <si>
+    <t>#N/D #N/D #N/D</t>
   </si>
   <si>
     <t>ARCENIA ARAUZ ROSAS</t>
@@ -6552,7 +6558,7 @@
         <v>484</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8226,19 +8232,19 @@
         <v>789</v>
       </c>
       <c r="F2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="G2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I2" t="s">
         <v>789</v>
       </c>
       <c r="J2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -8261,16 +8267,16 @@
         <v>790</v>
       </c>
       <c r="F3" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H3" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="I3" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="J3" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -8293,19 +8299,19 @@
         <v>791</v>
       </c>
       <c r="F4" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="G4" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H4" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I4" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="J4" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -8328,19 +8334,19 @@
         <v>792</v>
       </c>
       <c r="F5" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="G5" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H5" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="I5" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="J5" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -8363,16 +8369,16 @@
         <v>793</v>
       </c>
       <c r="F6" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G6" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H6" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -8395,19 +8401,19 @@
         <v>794</v>
       </c>
       <c r="F7" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="G7" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H7" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="I7" t="s">
         <v>794</v>
       </c>
       <c r="J7" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -8430,19 +8436,19 @@
         <v>795</v>
       </c>
       <c r="F8" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="G8" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H8" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="I8" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="J8" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -8465,16 +8471,16 @@
         <v>796</v>
       </c>
       <c r="F9" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H9" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I9" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="J9" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -8497,13 +8503,13 @@
         <v>797</v>
       </c>
       <c r="G10" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H10" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="J10" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -8526,19 +8532,19 @@
         <v>798</v>
       </c>
       <c r="F11" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="G11" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H11" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="I11" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="J11" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -8561,19 +8567,19 @@
         <v>799</v>
       </c>
       <c r="F12" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="G12" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H12" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="I12" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="J12" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -8596,19 +8602,19 @@
         <v>800</v>
       </c>
       <c r="F13" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G13" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H13" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="I13" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="J13" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -8631,16 +8637,16 @@
         <v>801</v>
       </c>
       <c r="F14" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H14" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="I14" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="J14" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -8663,13 +8669,13 @@
         <v>802</v>
       </c>
       <c r="G15" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H15" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="J15" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -8692,16 +8698,16 @@
         <v>803</v>
       </c>
       <c r="F16" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="G16" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H16" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="J16" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -8724,16 +8730,16 @@
         <v>804</v>
       </c>
       <c r="F17" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H17" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="I17" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="J17" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -8756,19 +8762,19 @@
         <v>805</v>
       </c>
       <c r="F18" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="G18" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H18" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="I18" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="J18" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -8791,19 +8797,19 @@
         <v>806</v>
       </c>
       <c r="F19" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="G19" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H19" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="I19" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="J19" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -8826,19 +8832,19 @@
         <v>807</v>
       </c>
       <c r="F20" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="G20" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H20" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="I20" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="J20" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -8861,16 +8867,16 @@
         <v>808</v>
       </c>
       <c r="F21" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="G21" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H21" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="J21" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -8893,19 +8899,19 @@
         <v>809</v>
       </c>
       <c r="F22" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="G22" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H22" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="I22" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="J22" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -8928,16 +8934,16 @@
         <v>810</v>
       </c>
       <c r="F23" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H23" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="I23" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="J23" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -8960,16 +8966,16 @@
         <v>811</v>
       </c>
       <c r="F24" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H24" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="I24" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="J24" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -8992,16 +8998,16 @@
         <v>812</v>
       </c>
       <c r="F25" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H25" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="I25" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="J25" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -9024,16 +9030,16 @@
         <v>813</v>
       </c>
       <c r="F26" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H26" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="I26" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="J26" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -9056,16 +9062,16 @@
         <v>814</v>
       </c>
       <c r="F27" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H27" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="I27" t="s">
         <v>814</v>
       </c>
       <c r="J27" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -9088,16 +9094,16 @@
         <v>815</v>
       </c>
       <c r="F28" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="G28" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H28" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="J28" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -9120,16 +9126,16 @@
         <v>816</v>
       </c>
       <c r="F29" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H29" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="I29" t="s">
         <v>816</v>
       </c>
       <c r="J29" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -9152,19 +9158,19 @@
         <v>817</v>
       </c>
       <c r="F30" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="G30" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H30" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="I30" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="J30" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -9187,16 +9193,16 @@
         <v>818</v>
       </c>
       <c r="F31" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H31" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="I31" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="J31" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -9219,19 +9225,19 @@
         <v>819</v>
       </c>
       <c r="F32" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="G32" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H32" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="I32" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="J32" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -9254,19 +9260,19 @@
         <v>820</v>
       </c>
       <c r="F33" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="G33" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H33" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="I33" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="J33" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -9289,19 +9295,19 @@
         <v>821</v>
       </c>
       <c r="F34" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="G34" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H34" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="I34" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="J34" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -9320,6 +9326,24 @@
       <c r="D35" t="s">
         <v>778</v>
       </c>
+      <c r="E35" t="s">
+        <v>822</v>
+      </c>
+      <c r="F35" t="s">
+        <v>822</v>
+      </c>
+      <c r="H35" t="s">
+        <v>929</v>
+      </c>
+      <c r="I35" t="s">
+        <v>822</v>
+      </c>
+      <c r="J35" t="s">
+        <v>822</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
@@ -9335,22 +9359,22 @@
         <v>779</v>
       </c>
       <c r="E36" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="F36" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="G36" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H36" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="I36" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="J36" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -9370,16 +9394,16 @@
         <v>780</v>
       </c>
       <c r="E37" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="G37" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H37" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J37" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -9399,19 +9423,19 @@
         <v>781</v>
       </c>
       <c r="E38" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="F38" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H38" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="I38" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="J38" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -9431,19 +9455,19 @@
         <v>782</v>
       </c>
       <c r="E39" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F39" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="G39" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H39" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="J39" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -9463,22 +9487,22 @@
         <v>783</v>
       </c>
       <c r="E40" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="F40" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="G40" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H40" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="I40" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="J40" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -9498,22 +9522,22 @@
         <v>784</v>
       </c>
       <c r="E41" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="F41" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G41" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H41" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="I41" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="J41" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -9533,22 +9557,22 @@
         <v>785</v>
       </c>
       <c r="E42" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F42" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="G42" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H42" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="I42" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="J42" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -9568,22 +9592,22 @@
         <v>786</v>
       </c>
       <c r="E43" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F43" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="G43" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H43" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="I43" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="J43" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -9603,19 +9627,19 @@
         <v>787</v>
       </c>
       <c r="E44" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F44" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H44" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="I44" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="J44" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -9635,16 +9659,16 @@
         <v>788</v>
       </c>
       <c r="E45" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="G45" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H45" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="J45" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -9712,25 +9736,25 @@
         <v>21330051920289</v>
       </c>
       <c r="B2" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="C2" t="s">
         <v>302</v>
       </c>
       <c r="D2" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="E2" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="G2" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="H2" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="J2" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -9747,22 +9771,22 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="E3" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="F3" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="H3" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="I3" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="J3" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -9773,25 +9797,25 @@
         <v>21330051920291</v>
       </c>
       <c r="B4" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="C4" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="D4" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="E4" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="F4" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="H4" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="J4" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -9802,31 +9826,31 @@
         <v>21330051920292</v>
       </c>
       <c r="B5" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C5" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="D5" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="E5" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="F5" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="G5" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="H5" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="I5" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="J5" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -9840,25 +9864,25 @@
         <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="D6" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="E6" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="F6" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="H6" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="I6" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="J6" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -9869,31 +9893,31 @@
         <v>21330051920294</v>
       </c>
       <c r="B7" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="E7" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="F7" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="G7" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="H7" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="I7" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="J7" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -9910,19 +9934,19 @@
         <v>718</v>
       </c>
       <c r="D8" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="E8" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="F8" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="H8" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="J8" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -9933,28 +9957,28 @@
         <v>21330051920296</v>
       </c>
       <c r="B9" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="C9" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="D9" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="E9" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="F9" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="H9" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="I9" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="J9" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -9968,22 +9992,22 @@
         <v>708</v>
       </c>
       <c r="C10" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="D10" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="E10" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="G10" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="H10" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="J10" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -10000,25 +10024,25 @@
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="E11" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="F11" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="G11" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="H11" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="I11" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="J11" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -10035,25 +10059,25 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="E12" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="F12" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="G12" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="H12" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="I12" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="J12" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -10064,28 +10088,28 @@
         <v>21330051920337</v>
       </c>
       <c r="B13" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C13" t="s">
         <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="E13" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="F13" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="H13" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="I13" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="J13" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -10099,22 +10123,22 @@
         <v>710</v>
       </c>
       <c r="C14" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D14" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="E14" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="G14" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="H14" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="J14" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -10128,28 +10152,28 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="D15" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="E15" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="F15" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="G15" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="H15" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="I15" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="J15" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -10163,28 +10187,28 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="D16" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="E16" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="F16" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="G16" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="H16" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="I16" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="J16" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -10195,28 +10219,28 @@
         <v>21330051920303</v>
       </c>
       <c r="B17" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="E17" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="F17" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="H17" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="I17" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="J17" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -10227,28 +10251,28 @@
         <v>21330051920304</v>
       </c>
       <c r="B18" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="E18" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="F18" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="G18" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="H18" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="J18" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -10259,25 +10283,25 @@
         <v>21330051920305</v>
       </c>
       <c r="B19" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C19" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="D19" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="E19" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="G19" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="H19" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="J19" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -10294,22 +10318,22 @@
         <v>719</v>
       </c>
       <c r="D20" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="E20" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="F20" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="H20" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="I20" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="J20" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -10326,22 +10350,22 @@
         <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="E21" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="F21" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="H21" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="I21" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="J21" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -10355,25 +10379,25 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="D22" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="E22" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="F22" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="G22" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="H22" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="J22" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -10384,31 +10408,31 @@
         <v>21330051920308</v>
       </c>
       <c r="B23" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="E23" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="F23" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="G23" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="H23" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="I23" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="J23" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -10419,28 +10443,28 @@
         <v>21330051920309</v>
       </c>
       <c r="B24" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="C24" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D24" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="E24" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="F24" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="H24" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="I24" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="J24" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -10454,28 +10478,28 @@
         <v>292</v>
       </c>
       <c r="C25" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="D25" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="E25" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="F25" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="G25" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="H25" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="I25" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="J25" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -10492,25 +10516,25 @@
         <v>294</v>
       </c>
       <c r="D26" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="E26" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="F26" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="G26" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="H26" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="I26" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="J26" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -10524,25 +10548,25 @@
         <v>502</v>
       </c>
       <c r="C27" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="D27" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="E27" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="F27" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="G27" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="H27" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="J27" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -10559,22 +10583,22 @@
         <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="E28" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="F28" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="G28" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="H28" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="J28" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -10585,28 +10609,28 @@
         <v>21330051920313</v>
       </c>
       <c r="B29" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="C29" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="D29" t="s">
         <v>74</v>
       </c>
       <c r="E29" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="F29" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="H29" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="I29" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="J29" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -10617,28 +10641,28 @@
         <v>21330051920314</v>
       </c>
       <c r="B30" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C30" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D30" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="E30" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="F30" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="G30" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="H30" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="J30" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -10649,31 +10673,31 @@
         <v>21330051920172</v>
       </c>
       <c r="B31" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="C31" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="D31" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="E31" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="F31" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="G31" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="H31" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="I31" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="J31" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -10687,25 +10711,25 @@
         <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="D32" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="E32" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="F32" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="H32" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="I32" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="J32" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -10725,19 +10749,19 @@
         <v>74</v>
       </c>
       <c r="E33" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="F33" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="H33" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="I33" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="J33" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -10748,28 +10772,28 @@
         <v>21330051920317</v>
       </c>
       <c r="B34" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="C34" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="D34" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="E34" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="F34" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="G34" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="H34" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="J34" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -10783,25 +10807,25 @@
         <v>719</v>
       </c>
       <c r="C35" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="D35" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="E35" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="F35" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="G35" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="H35" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="J35" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -10818,22 +10842,22 @@
         <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="E36" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="F36" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="G36" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="H36" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="J36" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -10847,25 +10871,25 @@
         <v>720</v>
       </c>
       <c r="C37" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="D37" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="E37" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="F37" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="H37" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="I37" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="J37" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -10882,25 +10906,25 @@
         <v>296</v>
       </c>
       <c r="D38" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="E38" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="F38" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="G38" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="H38" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="I38" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="J38" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -10917,25 +10941,25 @@
         <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="E39" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="F39" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="G39" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="H39" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="I39" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="J39" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -10952,25 +10976,25 @@
         <v>728</v>
       </c>
       <c r="D40" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="E40" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="F40" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="G40" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="H40" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="I40" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="J40" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -10987,22 +11011,22 @@
         <v>719</v>
       </c>
       <c r="D41" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="E41" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="F41" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="H41" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="I41" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="J41" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -11019,22 +11043,22 @@
         <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="E42" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="F42" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="H42" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="I42" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="J42" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -11048,28 +11072,28 @@
         <v>506</v>
       </c>
       <c r="C43" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="D43" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="E43" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="F43" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="G43" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="H43" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="I43" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="J43" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -11086,25 +11110,25 @@
         <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="E44" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="F44" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="G44" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="H44" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="I44" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="J44" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -11118,28 +11142,28 @@
         <v>732</v>
       </c>
       <c r="C45" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="D45" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="E45" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="F45" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="G45" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="H45" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="I45" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="J45" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -11207,28 +11231,28 @@
         <v>21330051920331</v>
       </c>
       <c r="B2" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="C2" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="D2" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="E2" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="F2" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="G2" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="H2" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="J2" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -11239,28 +11263,28 @@
         <v>21330051920332</v>
       </c>
       <c r="B3" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="C3" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="D3" t="s">
         <v>548</v>
       </c>
       <c r="E3" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="F3" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="G3" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="H3" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="J3" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -11277,19 +11301,19 @@
         <v>310</v>
       </c>
       <c r="D4" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="E4" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="G4" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="H4" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="J4" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -11300,28 +11324,28 @@
         <v>21330051920334</v>
       </c>
       <c r="B5" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="C5" t="s">
         <v>306</v>
       </c>
       <c r="D5" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="E5" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="F5" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="H5" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="I5" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="J5" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -11338,22 +11362,22 @@
         <v>280</v>
       </c>
       <c r="D6" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="E6" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="F6" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="H6" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="I6" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="J6" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -11370,25 +11394,25 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="E7" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="F7" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="G7" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="H7" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="I7" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="J7" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -11405,25 +11429,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="E8" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="F8" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="G8" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="H8" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="I8" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="J8" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -11440,28 +11464,28 @@
         <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="E9" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="F9" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="G9" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="H9" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="I9" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="J9" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -11469,31 +11493,31 @@
         <v>21330051920339</v>
       </c>
       <c r="B10" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="C10" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="D10" t="s">
         <v>321</v>
       </c>
       <c r="E10" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="F10" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="G10" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="H10" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="I10" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="J10" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -11510,19 +11534,19 @@
         <v>294</v>
       </c>
       <c r="D11" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="E11" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="G11" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="H11" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="J11" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -11539,22 +11563,22 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="E12" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="F12" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="G12" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="H12" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="J12" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -11565,31 +11589,31 @@
         <v>21330051920342</v>
       </c>
       <c r="B13" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="C13" t="s">
         <v>710</v>
       </c>
       <c r="D13" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="E13" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="F13" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="G13" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="H13" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="I13" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="J13" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -11600,7 +11624,7 @@
         <v>21330051920343</v>
       </c>
       <c r="B14" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="C14" t="s">
         <v>720</v>
@@ -11609,16 +11633,16 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="F14" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="H14" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="J14" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -11635,22 +11659,22 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="E15" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="F15" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="H15" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="I15" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="J15" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -11667,22 +11691,22 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="E16" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="F16" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="H16" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="I16" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="J16" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -11693,28 +11717,28 @@
         <v>21330051920346</v>
       </c>
       <c r="B17" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="E17" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="F17" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="H17" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="I17" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="J17" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -11728,25 +11752,25 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="D18" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="E18" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="F18" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="H18" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="I18" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="J18" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -11760,28 +11784,28 @@
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="D19" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="E19" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="F19" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="G19" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="H19" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="I19" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="J19" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -11792,28 +11816,28 @@
         <v>21330051920349</v>
       </c>
       <c r="B20" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="C20" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="D20" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="E20" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="F20" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="H20" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="I20" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="J20" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -11830,22 +11854,22 @@
         <v>708</v>
       </c>
       <c r="D21" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="E21" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="F21" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="H21" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="I21" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="J21" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -11862,22 +11886,22 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="E22" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="F22" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="G22" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="H22" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="J22" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -11894,25 +11918,25 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="E23" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="F23" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="G23" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="H23" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="I23" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="J23" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -11929,19 +11953,19 @@
         <v>279</v>
       </c>
       <c r="D24" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="E24" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="G24" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="H24" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="J24" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -11958,25 +11982,25 @@
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="E25" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="F25" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="G25" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="H25" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="I25" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="J25" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -11990,28 +12014,28 @@
         <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="D26" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="E26" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="F26" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="G26" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="H26" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="I26" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="J26" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -12025,28 +12049,28 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="D27" t="s">
         <v>756</v>
       </c>
       <c r="E27" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="F27" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="G27" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="H27" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="I27" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="J27" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -12057,28 +12081,28 @@
         <v>21330051920354</v>
       </c>
       <c r="B28" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="C28" t="s">
         <v>300</v>
       </c>
       <c r="D28" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="E28" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="F28" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="H28" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="I28" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="J28" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="K28">
         <v>1</v>
